--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.9908487107495</v>
+        <v>44.09582266666666</v>
       </c>
       <c r="H2">
-        <v>42.9908487107495</v>
+        <v>132.287468</v>
       </c>
       <c r="I2">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="J2">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.32654418532088</v>
+        <v>5.802352333333334</v>
       </c>
       <c r="N2">
-        <v>5.32654418532088</v>
+        <v>17.407057</v>
       </c>
       <c r="O2">
-        <v>0.1972293052140253</v>
+        <v>0.1988288201859468</v>
       </c>
       <c r="P2">
-        <v>0.1972293052140253</v>
+        <v>0.1988288201859468</v>
       </c>
       <c r="Q2">
-        <v>228.9926552222524</v>
+        <v>255.8594995401862</v>
       </c>
       <c r="R2">
-        <v>228.9926552222524</v>
+        <v>2302.735495861676</v>
       </c>
       <c r="S2">
-        <v>0.03878086915385346</v>
+        <v>0.03832362684488012</v>
       </c>
       <c r="T2">
-        <v>0.03878086915385346</v>
+        <v>0.03832362684488012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.9908487107495</v>
+        <v>44.09582266666666</v>
       </c>
       <c r="H3">
-        <v>42.9908487107495</v>
+        <v>132.287468</v>
       </c>
       <c r="I3">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="J3">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.6692008839479</v>
+        <v>12.81923966666667</v>
       </c>
       <c r="N3">
-        <v>12.6692008839479</v>
+        <v>38.457719</v>
       </c>
       <c r="O3">
-        <v>0.4691104778299013</v>
+        <v>0.4392760301648158</v>
       </c>
       <c r="P3">
-        <v>0.4691104778299013</v>
+        <v>0.4392760301648158</v>
       </c>
       <c r="Q3">
-        <v>544.659698487898</v>
+        <v>565.2749190628324</v>
       </c>
       <c r="R3">
-        <v>544.659698487898</v>
+        <v>5087.474271565491</v>
       </c>
       <c r="S3">
-        <v>0.09224041041812366</v>
+        <v>0.08466906681935125</v>
       </c>
       <c r="T3">
-        <v>0.09224041041812366</v>
+        <v>0.08466906681935125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.9908487107495</v>
+        <v>44.09582266666666</v>
       </c>
       <c r="H4">
-        <v>42.9908487107495</v>
+        <v>132.287468</v>
       </c>
       <c r="I4">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="J4">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.97286845111864</v>
+        <v>3.182820333333333</v>
       </c>
       <c r="N4">
-        <v>2.97286845111864</v>
+        <v>9.548461</v>
       </c>
       <c r="O4">
-        <v>0.1100782718976925</v>
+        <v>0.109065491956597</v>
       </c>
       <c r="P4">
-        <v>0.1100782718976925</v>
+        <v>0.109065491956597</v>
       </c>
       <c r="Q4">
-        <v>127.8061378190016</v>
+        <v>140.3490809985275</v>
       </c>
       <c r="R4">
-        <v>127.8061378190016</v>
+        <v>1263.141728986748</v>
       </c>
       <c r="S4">
-        <v>0.02164450690790725</v>
+        <v>0.02102202895681279</v>
       </c>
       <c r="T4">
-        <v>0.02164450690790725</v>
+        <v>0.02102202895681279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.9908487107495</v>
+        <v>44.09582266666666</v>
       </c>
       <c r="H5">
-        <v>42.9908487107495</v>
+        <v>132.287468</v>
       </c>
       <c r="I5">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="J5">
-        <v>0.1966283312298343</v>
+        <v>0.1927468402671175</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.03824623374865</v>
+        <v>7.378240000000001</v>
       </c>
       <c r="N5">
-        <v>6.03824623374865</v>
+        <v>22.13472</v>
       </c>
       <c r="O5">
-        <v>0.223581945058381</v>
+        <v>0.2528296576926404</v>
       </c>
       <c r="P5">
-        <v>0.223581945058381</v>
+        <v>0.2528296576926404</v>
       </c>
       <c r="Q5">
-        <v>259.5893303133412</v>
+        <v>325.3495626321067</v>
       </c>
       <c r="R5">
-        <v>259.5893303133412</v>
+        <v>2928.14606368896</v>
       </c>
       <c r="S5">
-        <v>0.04396254474994994</v>
+        <v>0.04873211764607337</v>
       </c>
       <c r="T5">
-        <v>0.04396254474994994</v>
+        <v>0.04873211764607337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>111.268388766775</v>
+        <v>111.3149186666667</v>
       </c>
       <c r="H6">
-        <v>111.268388766775</v>
+        <v>333.944756</v>
       </c>
       <c r="I6">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="J6">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.32654418532088</v>
+        <v>5.802352333333334</v>
       </c>
       <c r="N6">
-        <v>5.32654418532088</v>
+        <v>17.407057</v>
       </c>
       <c r="O6">
-        <v>0.1972293052140253</v>
+        <v>0.1988288201859468</v>
       </c>
       <c r="P6">
-        <v>0.1972293052140253</v>
+        <v>0.1988288201859468</v>
       </c>
       <c r="Q6">
-        <v>592.6759891956884</v>
+        <v>645.8883780603436</v>
       </c>
       <c r="R6">
-        <v>592.6759891956884</v>
+        <v>5812.995402543092</v>
       </c>
       <c r="S6">
-        <v>0.1003721711743143</v>
+        <v>0.09674366294280076</v>
       </c>
       <c r="T6">
-        <v>0.1003721711743143</v>
+        <v>0.09674366294280076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.268388766775</v>
+        <v>111.3149186666667</v>
       </c>
       <c r="H7">
-        <v>111.268388766775</v>
+        <v>333.944756</v>
       </c>
       <c r="I7">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="J7">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.6692008839479</v>
+        <v>12.81923966666667</v>
       </c>
       <c r="N7">
-        <v>12.6692008839479</v>
+        <v>38.457719</v>
       </c>
       <c r="O7">
-        <v>0.4691104778299013</v>
+        <v>0.4392760301648158</v>
       </c>
       <c r="P7">
-        <v>0.4691104778299013</v>
+        <v>0.4392760301648158</v>
       </c>
       <c r="Q7">
-        <v>1409.681569319484</v>
+        <v>1426.972620863507</v>
       </c>
       <c r="R7">
-        <v>1409.681569319484</v>
+        <v>12842.75358777156</v>
       </c>
       <c r="S7">
-        <v>0.238735501954498</v>
+        <v>0.2137374861520212</v>
       </c>
       <c r="T7">
-        <v>0.238735501954498</v>
+        <v>0.2137374861520212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>111.268388766775</v>
+        <v>111.3149186666667</v>
       </c>
       <c r="H8">
-        <v>111.268388766775</v>
+        <v>333.944756</v>
       </c>
       <c r="I8">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="J8">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.97286845111864</v>
+        <v>3.182820333333333</v>
       </c>
       <c r="N8">
-        <v>2.97286845111864</v>
+        <v>9.548461</v>
       </c>
       <c r="O8">
-        <v>0.1100782718976925</v>
+        <v>0.109065491956597</v>
       </c>
       <c r="P8">
-        <v>0.1100782718976925</v>
+        <v>0.109065491956597</v>
       </c>
       <c r="Q8">
-        <v>330.7862825715491</v>
+        <v>354.2953865356129</v>
       </c>
       <c r="R8">
-        <v>330.7862825715491</v>
+        <v>3188.658478820516</v>
       </c>
       <c r="S8">
-        <v>0.05602004802226625</v>
+        <v>0.05306773526429414</v>
       </c>
       <c r="T8">
-        <v>0.05602004802226625</v>
+        <v>0.05306773526429414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>111.268388766775</v>
+        <v>111.3149186666667</v>
       </c>
       <c r="H9">
-        <v>111.268388766775</v>
+        <v>333.944756</v>
       </c>
       <c r="I9">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="J9">
-        <v>0.5089110417206736</v>
+        <v>0.4865676055026886</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.03824623374865</v>
+        <v>7.378240000000001</v>
       </c>
       <c r="N9">
-        <v>6.03824623374865</v>
+        <v>22.13472</v>
       </c>
       <c r="O9">
-        <v>0.223581945058381</v>
+        <v>0.2528296576926404</v>
       </c>
       <c r="P9">
-        <v>0.223581945058381</v>
+        <v>0.2528296576926404</v>
       </c>
       <c r="Q9">
-        <v>671.8659294062597</v>
+        <v>821.3081855031467</v>
       </c>
       <c r="R9">
-        <v>671.8659294062597</v>
+        <v>7391.77366952832</v>
       </c>
       <c r="S9">
-        <v>0.1137833205695951</v>
+        <v>0.1230187211435725</v>
       </c>
       <c r="T9">
-        <v>0.1137833205695951</v>
+        <v>0.1230187211435725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.2065375043441</v>
+        <v>40.34450033333334</v>
       </c>
       <c r="H10">
-        <v>35.2065375043441</v>
+        <v>121.033501</v>
       </c>
       <c r="I10">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="J10">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.32654418532088</v>
+        <v>5.802352333333334</v>
       </c>
       <c r="N10">
-        <v>5.32654418532088</v>
+        <v>17.407057</v>
       </c>
       <c r="O10">
-        <v>0.1972293052140253</v>
+        <v>0.1988288201859468</v>
       </c>
       <c r="P10">
-        <v>0.1972293052140253</v>
+        <v>0.1988288201859468</v>
       </c>
       <c r="Q10">
-        <v>187.5291776290455</v>
+        <v>234.0930056462842</v>
       </c>
       <c r="R10">
-        <v>187.5291776290455</v>
+        <v>2106.837050816557</v>
       </c>
       <c r="S10">
-        <v>0.0317588548554244</v>
+        <v>0.035063357082724</v>
       </c>
       <c r="T10">
-        <v>0.0317588548554244</v>
+        <v>0.035063357082724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.2065375043441</v>
+        <v>40.34450033333334</v>
       </c>
       <c r="H11">
-        <v>35.2065375043441</v>
+        <v>121.033501</v>
       </c>
       <c r="I11">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="J11">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.6692008839479</v>
+        <v>12.81923966666667</v>
       </c>
       <c r="N11">
-        <v>12.6692008839479</v>
+        <v>38.457719</v>
       </c>
       <c r="O11">
-        <v>0.4691104778299013</v>
+        <v>0.4392760301648158</v>
       </c>
       <c r="P11">
-        <v>0.4691104778299013</v>
+        <v>0.4392760301648158</v>
       </c>
       <c r="Q11">
-        <v>446.0386960707812</v>
+        <v>517.1858190049132</v>
       </c>
       <c r="R11">
-        <v>446.0386960707812</v>
+        <v>4654.672371044218</v>
       </c>
       <c r="S11">
-        <v>0.07553852892394192</v>
+        <v>0.07746609515233156</v>
       </c>
       <c r="T11">
-        <v>0.07553852892394192</v>
+        <v>0.07746609515233156</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.2065375043441</v>
+        <v>40.34450033333334</v>
       </c>
       <c r="H12">
-        <v>35.2065375043441</v>
+        <v>121.033501</v>
       </c>
       <c r="I12">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="J12">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.97286845111864</v>
+        <v>3.182820333333333</v>
       </c>
       <c r="N12">
-        <v>2.97286845111864</v>
+        <v>9.548461</v>
       </c>
       <c r="O12">
-        <v>0.1100782718976925</v>
+        <v>0.109065491956597</v>
       </c>
       <c r="P12">
-        <v>0.1100782718976925</v>
+        <v>0.109065491956597</v>
       </c>
       <c r="Q12">
-        <v>104.6644046197897</v>
+        <v>128.4092959991068</v>
       </c>
       <c r="R12">
-        <v>104.6644046197897</v>
+        <v>1155.683663991961</v>
       </c>
       <c r="S12">
-        <v>0.0177253570717652</v>
+        <v>0.01923364171401656</v>
       </c>
       <c r="T12">
-        <v>0.0177253570717652</v>
+        <v>0.01923364171401656</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.2065375043441</v>
+        <v>40.34450033333334</v>
       </c>
       <c r="H13">
-        <v>35.2065375043441</v>
+        <v>121.033501</v>
       </c>
       <c r="I13">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="J13">
-        <v>0.161025030336952</v>
+        <v>0.176349470111689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.03824623374865</v>
+        <v>7.378240000000001</v>
       </c>
       <c r="N13">
-        <v>6.03824623374865</v>
+        <v>22.13472</v>
       </c>
       <c r="O13">
-        <v>0.223581945058381</v>
+        <v>0.2528296576926404</v>
       </c>
       <c r="P13">
-        <v>0.223581945058381</v>
+        <v>0.2528296576926404</v>
       </c>
       <c r="Q13">
-        <v>212.5857424889363</v>
+        <v>297.6714061394134</v>
       </c>
       <c r="R13">
-        <v>212.5857424889363</v>
+        <v>2679.04265525472</v>
       </c>
       <c r="S13">
-        <v>0.03600228948582054</v>
+        <v>0.04458637616261685</v>
       </c>
       <c r="T13">
-        <v>0.03600228948582054</v>
+        <v>0.04458637616261685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.1743794753164</v>
+        <v>33.02061066666666</v>
       </c>
       <c r="H14">
-        <v>29.1743794753164</v>
+        <v>99.061832</v>
       </c>
       <c r="I14">
-        <v>0.13343559671254</v>
+        <v>0.1443360841185049</v>
       </c>
       <c r="J14">
-        <v>0.13343559671254</v>
+        <v>0.144336084118505</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.32654418532088</v>
+        <v>5.802352333333334</v>
       </c>
       <c r="N14">
-        <v>5.32654418532088</v>
+        <v>17.407057</v>
       </c>
       <c r="O14">
-        <v>0.1972293052140253</v>
+        <v>0.1988288201859468</v>
       </c>
       <c r="P14">
-        <v>0.1972293052140253</v>
+        <v>0.1988288201859468</v>
       </c>
       <c r="Q14">
-        <v>155.3986213545914</v>
+        <v>191.5972173498249</v>
       </c>
       <c r="R14">
-        <v>155.3986213545914</v>
+        <v>1724.374956148424</v>
       </c>
       <c r="S14">
-        <v>0.02631741003043315</v>
+        <v>0.02869817331554191</v>
       </c>
       <c r="T14">
-        <v>0.02631741003043315</v>
+        <v>0.02869817331554192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.1743794753164</v>
+        <v>33.02061066666666</v>
       </c>
       <c r="H15">
-        <v>29.1743794753164</v>
+        <v>99.061832</v>
       </c>
       <c r="I15">
-        <v>0.13343559671254</v>
+        <v>0.1443360841185049</v>
       </c>
       <c r="J15">
-        <v>0.13343559671254</v>
+        <v>0.144336084118505</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.6692008839479</v>
+        <v>12.81923966666667</v>
       </c>
       <c r="N15">
-        <v>12.6692008839479</v>
+        <v>38.457719</v>
       </c>
       <c r="O15">
-        <v>0.4691104778299013</v>
+        <v>0.4392760301648158</v>
       </c>
       <c r="P15">
-        <v>0.4691104778299013</v>
+        <v>0.4392760301648158</v>
       </c>
       <c r="Q15">
-        <v>369.61607423731</v>
+        <v>423.2991220756897</v>
       </c>
       <c r="R15">
-        <v>369.61607423731</v>
+        <v>3809.692098681207</v>
       </c>
       <c r="S15">
-        <v>0.06259603653333765</v>
+        <v>0.06340338204111176</v>
       </c>
       <c r="T15">
-        <v>0.06259603653333765</v>
+        <v>0.06340338204111177</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.1743794753164</v>
+        <v>33.02061066666666</v>
       </c>
       <c r="H16">
-        <v>29.1743794753164</v>
+        <v>99.061832</v>
       </c>
       <c r="I16">
-        <v>0.13343559671254</v>
+        <v>0.1443360841185049</v>
       </c>
       <c r="J16">
-        <v>0.13343559671254</v>
+        <v>0.144336084118505</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.97286845111864</v>
+        <v>3.182820333333333</v>
       </c>
       <c r="N16">
-        <v>2.97286845111864</v>
+        <v>9.548461</v>
       </c>
       <c r="O16">
-        <v>0.1100782718976925</v>
+        <v>0.109065491956597</v>
       </c>
       <c r="P16">
-        <v>0.1100782718976925</v>
+        <v>0.109065491956597</v>
       </c>
       <c r="Q16">
-        <v>86.7315923231313</v>
+        <v>105.0986710489502</v>
       </c>
       <c r="R16">
-        <v>86.7315923231313</v>
+        <v>945.8880394405519</v>
       </c>
       <c r="S16">
-        <v>0.01468835989575383</v>
+        <v>0.01574208602147351</v>
       </c>
       <c r="T16">
-        <v>0.01468835989575383</v>
+        <v>0.01574208602147351</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.1743794753164</v>
+        <v>33.02061066666666</v>
       </c>
       <c r="H17">
-        <v>29.1743794753164</v>
+        <v>99.061832</v>
       </c>
       <c r="I17">
-        <v>0.13343559671254</v>
+        <v>0.1443360841185049</v>
       </c>
       <c r="J17">
-        <v>0.13343559671254</v>
+        <v>0.144336084118505</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.03824623374865</v>
+        <v>7.378240000000001</v>
       </c>
       <c r="N17">
-        <v>6.03824623374865</v>
+        <v>22.13472</v>
       </c>
       <c r="O17">
-        <v>0.223581945058381</v>
+        <v>0.2528296576926404</v>
       </c>
       <c r="P17">
-        <v>0.223581945058381</v>
+        <v>0.2528296576926404</v>
       </c>
       <c r="Q17">
-        <v>176.1620869887832</v>
+        <v>243.6339904452267</v>
       </c>
       <c r="R17">
-        <v>176.1620869887832</v>
+        <v>2192.70591400704</v>
       </c>
       <c r="S17">
-        <v>0.0298337902530154</v>
+        <v>0.03649244274037776</v>
       </c>
       <c r="T17">
-        <v>0.0298337902530154</v>
+        <v>0.03649244274037777</v>
       </c>
     </row>
   </sheetData>
